--- a/Code/Results/Cases/Case_4_229/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_229/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.58717965428279</v>
+        <v>7.805543114114612</v>
       </c>
       <c r="C2">
-        <v>7.630673787206227</v>
+        <v>5.44426934738694</v>
       </c>
       <c r="D2">
-        <v>7.130201265633816</v>
+        <v>5.980106129458768</v>
       </c>
       <c r="E2">
-        <v>14.58041456616673</v>
+        <v>12.92265138345084</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>21.8203614216087</v>
+        <v>27.38410292719514</v>
       </c>
       <c r="H2">
-        <v>8.664931744016076</v>
+        <v>13.96336833258216</v>
       </c>
       <c r="I2">
-        <v>13.00137348545468</v>
+        <v>20.20127425907823</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.62169040700584</v>
+        <v>8.278630340669769</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.66676195446462</v>
+        <v>13.20517529870976</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.11891360592464</v>
+        <v>21.06785478488508</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.85327435490006</v>
+        <v>7.479159255367423</v>
       </c>
       <c r="C3">
-        <v>7.272354410416297</v>
+        <v>5.276570393855876</v>
       </c>
       <c r="D3">
-        <v>6.640019198155006</v>
+        <v>5.86015818202964</v>
       </c>
       <c r="E3">
-        <v>13.73217371218064</v>
+        <v>12.72239842815129</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>21.44854834408856</v>
+        <v>27.42748847833633</v>
       </c>
       <c r="H3">
-        <v>8.721054462268242</v>
+        <v>14.00926801709297</v>
       </c>
       <c r="I3">
-        <v>13.15370453773694</v>
+        <v>20.28952537903529</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.04472066105074</v>
+        <v>8.003866026527515</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.74318461726923</v>
+        <v>13.02095456359948</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.11143799127913</v>
+        <v>21.13700669877316</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.37850050706654</v>
+        <v>7.27202708196739</v>
       </c>
       <c r="C4">
-        <v>7.042978557127909</v>
+        <v>5.169923302844849</v>
       </c>
       <c r="D4">
-        <v>6.321874884353649</v>
+        <v>5.786987836945771</v>
       </c>
       <c r="E4">
-        <v>13.19773755950076</v>
+        <v>12.60251652323681</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>21.24515763286184</v>
+        <v>27.46358855484575</v>
       </c>
       <c r="H4">
-        <v>8.761325515696193</v>
+        <v>14.03975236640628</v>
       </c>
       <c r="I4">
-        <v>13.25786958905029</v>
+        <v>20.34774840779203</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.67414716888384</v>
+        <v>7.828683050233664</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.14620935907628</v>
+        <v>12.90957888070791</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.12013144545282</v>
+        <v>21.18421335048026</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.17900090048882</v>
+        <v>7.186046953095028</v>
       </c>
       <c r="C5">
-        <v>6.947213382534241</v>
+        <v>5.125579076165792</v>
       </c>
       <c r="D5">
-        <v>6.199749742914597</v>
+        <v>5.757337262259002</v>
       </c>
       <c r="E5">
-        <v>12.97675532266171</v>
+        <v>12.55450536322625</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.16843796438065</v>
+        <v>27.48066925665675</v>
       </c>
       <c r="H5">
-        <v>8.779142980890882</v>
+        <v>14.05275354206671</v>
       </c>
       <c r="I5">
-        <v>13.30287359452348</v>
+        <v>20.37248871154386</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.51912179990747</v>
+        <v>7.755730820374788</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.89541171482364</v>
+        <v>12.8646847351423</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.12688040606138</v>
+        <v>21.20464120862175</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.14551197080931</v>
+        <v>7.171678891226096</v>
       </c>
       <c r="C6">
-        <v>6.931175251977277</v>
+        <v>5.118163577986689</v>
       </c>
       <c r="D6">
-        <v>6.180646853995837</v>
+        <v>5.752425264320433</v>
       </c>
       <c r="E6">
-        <v>12.9398761038796</v>
+        <v>12.54658595310631</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.15606756267103</v>
+        <v>27.48364830972525</v>
       </c>
       <c r="H6">
-        <v>8.78218496335465</v>
+        <v>14.05494731372553</v>
       </c>
       <c r="I6">
-        <v>13.31049754212964</v>
+        <v>20.37665802954271</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.49314049169593</v>
+        <v>7.743524741875031</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.85331248215188</v>
+        <v>12.85726144450951</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.12819077881396</v>
+        <v>21.20810507030126</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.37583430620566</v>
+        <v>7.2708737187096</v>
       </c>
       <c r="C7">
-        <v>7.041696225567564</v>
+        <v>5.169328786766433</v>
       </c>
       <c r="D7">
-        <v>6.320085435086724</v>
+        <v>5.78658722090662</v>
       </c>
       <c r="E7">
-        <v>13.19476991316972</v>
+        <v>12.60186553060271</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>21.24409815886492</v>
+        <v>27.46380933021215</v>
       </c>
       <c r="H7">
-        <v>8.761560183186653</v>
+        <v>14.0399253625837</v>
       </c>
       <c r="I7">
-        <v>13.25846633032756</v>
+        <v>20.34807796014449</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.67207256338314</v>
+        <v>7.827705431778571</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.14285748499402</v>
+        <v>12.90897135608934</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.12020965996109</v>
+        <v>21.18448403033309</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.33916573004504</v>
+        <v>7.694470670097245</v>
       </c>
       <c r="C8">
-        <v>7.509103016743833</v>
+        <v>5.387233502249907</v>
       </c>
       <c r="D8">
-        <v>6.964731890883326</v>
+        <v>5.938676644876238</v>
       </c>
       <c r="E8">
-        <v>14.29088724909218</v>
+        <v>12.85300780484579</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>21.68694068841037</v>
+        <v>27.39709333522215</v>
       </c>
       <c r="H8">
-        <v>8.683043092864116</v>
+        <v>13.97871667175683</v>
       </c>
       <c r="I8">
-        <v>13.05161703687643</v>
+        <v>20.23086483306856</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.42618379979571</v>
+        <v>8.185272614216451</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.35450811788297</v>
+        <v>13.14132916507122</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.11349892976232</v>
+        <v>21.09071137484074</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.03531362826943</v>
+        <v>8.467181329125125</v>
       </c>
       <c r="C9">
-        <v>8.349223381817406</v>
+        <v>5.783762989600422</v>
       </c>
       <c r="D9">
-        <v>8.094030016984602</v>
+        <v>6.238706399734584</v>
       </c>
       <c r="E9">
-        <v>16.33503330033638</v>
+        <v>13.36680354881786</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22.75599302217727</v>
+        <v>27.34169096407835</v>
       </c>
       <c r="H9">
-        <v>8.577750280635216</v>
+        <v>13.87696062738328</v>
       </c>
       <c r="I9">
-        <v>12.73604140414375</v>
+        <v>20.03308547907721</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.77261373046437</v>
+        <v>8.832564087607906</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.49440610401033</v>
+        <v>13.60829015189443</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.21162375021692</v>
+        <v>20.94461658633934</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.16305510974126</v>
+        <v>8.99440114842624</v>
       </c>
       <c r="C10">
-        <v>8.917722550870968</v>
+        <v>6.054457610591172</v>
       </c>
       <c r="D10">
-        <v>8.843486228864524</v>
+        <v>6.457618987744307</v>
       </c>
       <c r="E10">
-        <v>17.94371662401798</v>
+        <v>13.75310396539264</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.66621586029919</v>
+        <v>27.3473592170473</v>
       </c>
       <c r="H10">
-        <v>8.533771111514458</v>
+        <v>13.81335509482726</v>
       </c>
       <c r="I10">
-        <v>12.56752269342374</v>
+        <v>19.90739627071385</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.67828609681196</v>
+        <v>9.272358921661176</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.9249271983997</v>
+        <v>13.95494867215105</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.35940081963087</v>
+        <v>20.86048791541589</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.65042521496579</v>
+        <v>9.224604169110467</v>
       </c>
       <c r="C11">
-        <v>9.165499490686281</v>
+        <v>6.172794813153521</v>
       </c>
       <c r="D11">
-        <v>9.167450829937758</v>
+        <v>6.556359879665584</v>
       </c>
       <c r="E11">
-        <v>18.64650584656387</v>
+        <v>13.92987728697771</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>24.10752640998841</v>
+        <v>27.36005671854768</v>
       </c>
       <c r="H11">
-        <v>8.521862787652569</v>
+        <v>13.78684451749192</v>
       </c>
       <c r="I11">
-        <v>12.50662067367461</v>
+        <v>19.85449178839747</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.07182073079176</v>
+        <v>9.464165391677207</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.54563964492534</v>
+        <v>14.1127384999112</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.44466673029935</v>
+        <v>20.82728810742974</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.83130491400661</v>
+        <v>9.310333641775316</v>
       </c>
       <c r="C12">
-        <v>9.257755437390838</v>
+        <v>6.216891998197392</v>
       </c>
       <c r="D12">
-        <v>9.287724887162176</v>
+        <v>6.593588835587793</v>
       </c>
       <c r="E12">
-        <v>18.90856988356562</v>
+        <v>13.9968952283855</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>24.27854739621668</v>
+        <v>27.36632127607113</v>
       </c>
       <c r="H12">
-        <v>8.51859176641188</v>
+        <v>13.77715449936689</v>
       </c>
       <c r="I12">
-        <v>12.48600396708115</v>
+        <v>19.83507392488242</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.21817267668231</v>
+        <v>9.535574900524313</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.77643433896601</v>
+        <v>14.17244650253387</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.47967434600106</v>
+        <v>20.81544788454895</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.79251251365916</v>
+        <v>9.291935298154462</v>
       </c>
       <c r="C13">
-        <v>9.237956520172416</v>
+        <v>6.207427010173711</v>
       </c>
       <c r="D13">
-        <v>9.261928070167002</v>
+        <v>6.585578746626576</v>
       </c>
       <c r="E13">
-        <v>18.8523087821435</v>
+        <v>13.98245938813167</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>24.24154148994299</v>
+        <v>27.36490732255732</v>
       </c>
       <c r="H13">
-        <v>8.519239954276266</v>
+        <v>13.77922589150195</v>
       </c>
       <c r="I13">
-        <v>12.49033241058663</v>
+        <v>19.83922849070701</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.18677212951808</v>
+        <v>9.520250520540738</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.7269167396418</v>
+        <v>14.15959014403203</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.47201195165705</v>
+        <v>20.8179652997623</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.6653798979011</v>
+        <v>9.231686415571271</v>
       </c>
       <c r="C14">
-        <v>9.173120998202554</v>
+        <v>6.176437162361319</v>
       </c>
       <c r="D14">
-        <v>9.177393827034553</v>
+        <v>6.559426201800875</v>
       </c>
       <c r="E14">
-        <v>18.66814687636361</v>
+        <v>13.93538974253739</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>24.12151821289981</v>
+        <v>27.36054292073647</v>
       </c>
       <c r="H14">
-        <v>8.5215684259796</v>
+        <v>13.7860403178235</v>
       </c>
       <c r="I14">
-        <v>12.50487444780867</v>
+        <v>19.85288191604782</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.08391478794911</v>
+        <v>9.470065003693419</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.56471215804647</v>
+        <v>14.11765190725066</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.44749163132653</v>
+        <v>20.82629932368916</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.58702911618484</v>
+        <v>9.194592679152361</v>
       </c>
       <c r="C15">
-        <v>9.133202385406772</v>
+        <v>6.157361270740102</v>
       </c>
       <c r="D15">
-        <v>9.125302125686604</v>
+        <v>6.543384735334066</v>
       </c>
       <c r="E15">
-        <v>18.5548160722713</v>
+        <v>13.9065662359826</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>24.04850873573153</v>
+        <v>27.35805925557181</v>
       </c>
       <c r="H15">
-        <v>8.523158200367845</v>
+        <v>13.79025980793068</v>
       </c>
       <c r="I15">
-        <v>12.51410585126049</v>
+        <v>19.86132529115704</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.02056350956667</v>
+        <v>9.439164611405856</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.46480499208376</v>
+        <v>14.09195618720085</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.43282998148488</v>
+        <v>20.83149953512732</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.13068905931506</v>
+        <v>8.979157827188009</v>
       </c>
       <c r="C16">
-        <v>8.90131037811936</v>
+        <v>6.046625240237065</v>
       </c>
       <c r="D16">
-        <v>8.821975971092499</v>
+        <v>6.451145525544167</v>
       </c>
       <c r="E16">
-        <v>17.89721259341752</v>
+        <v>13.74156618117666</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>23.63792261154799</v>
+        <v>27.34673316755686</v>
       </c>
       <c r="H16">
-        <v>8.534718555997351</v>
+        <v>13.81513643345352</v>
       </c>
       <c r="I16">
-        <v>12.57183499746614</v>
+        <v>19.91093980472261</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.6521945905799</v>
+        <v>9.259654562879989</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.88376300184474</v>
+        <v>13.94463370409903</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.35420232003622</v>
+        <v>20.86275986811426</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.84417643856918</v>
+        <v>8.844484148505058</v>
       </c>
       <c r="C17">
-        <v>8.75626490084421</v>
+        <v>5.977444188112586</v>
       </c>
       <c r="D17">
-        <v>8.631574466429766</v>
+        <v>6.394313965248119</v>
       </c>
       <c r="E17">
-        <v>17.4864344638126</v>
+        <v>13.64055915447432</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>23.39301394358016</v>
+        <v>27.34237810268015</v>
       </c>
       <c r="H17">
-        <v>8.543936259981109</v>
+        <v>13.83101854797991</v>
       </c>
       <c r="I17">
-        <v>12.61141055229128</v>
+        <v>19.94247202453225</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.42146932624886</v>
+        <v>9.147388753405432</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.51966181617121</v>
+        <v>13.85423896592729</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.3106780332659</v>
+        <v>20.88323775087654</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.67696698204141</v>
+        <v>8.766119686108716</v>
       </c>
       <c r="C18">
-        <v>8.671818979971976</v>
+        <v>5.937202220498486</v>
       </c>
       <c r="D18">
-        <v>8.520461367278852</v>
+        <v>6.361548853831338</v>
       </c>
       <c r="E18">
-        <v>17.24742821725173</v>
+        <v>13.58256500460204</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23.25471483431516</v>
+        <v>27.34082567144519</v>
       </c>
       <c r="H18">
-        <v>8.549995666038052</v>
+        <v>13.84038164475525</v>
       </c>
       <c r="I18">
-        <v>12.63564520490125</v>
+        <v>19.96101054368188</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.28702504165486</v>
+        <v>9.08204094187532</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.30740871347551</v>
+        <v>13.8022583892396</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.28733497824245</v>
+        <v>20.89549322107805</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.61993773947866</v>
+        <v>8.739433536311871</v>
       </c>
       <c r="C19">
-        <v>8.643052450428867</v>
+        <v>5.923500320447845</v>
       </c>
       <c r="D19">
-        <v>8.482564657423165</v>
+        <v>6.35044318810236</v>
       </c>
       <c r="E19">
-        <v>17.16603166605141</v>
+        <v>13.56294900790404</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23.20833004671263</v>
+        <v>27.3404635702322</v>
       </c>
       <c r="H19">
-        <v>8.552175193552856</v>
+        <v>13.84359099655765</v>
       </c>
       <c r="I19">
-        <v>12.64409812410618</v>
+        <v>19.96735636733831</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.2412068054242</v>
+        <v>9.059783275514585</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.23505529227662</v>
+        <v>13.78466249603168</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.27971796022168</v>
+        <v>20.8997245773213</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.87492607935536</v>
+        <v>8.858914374611491</v>
       </c>
       <c r="C20">
-        <v>8.771810883839706</v>
+        <v>5.98485547294237</v>
       </c>
       <c r="D20">
-        <v>8.652008288493407</v>
+        <v>6.400372064274936</v>
       </c>
       <c r="E20">
-        <v>17.53044510570165</v>
+        <v>13.6513014549222</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>23.4188193911456</v>
+        <v>27.34274311367189</v>
       </c>
       <c r="H20">
-        <v>8.542876081684078</v>
+        <v>13.82930425675534</v>
       </c>
       <c r="I20">
-        <v>12.60704406807526</v>
+        <v>19.93907374691167</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.44621036866652</v>
+        <v>9.159420175209879</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.55871364489212</v>
+        <v>13.86386080695445</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.31513533930378</v>
+        <v>20.8810084439786</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.70282149460217</v>
+        <v>9.249422568123897</v>
       </c>
       <c r="C21">
-        <v>9.192207495943686</v>
+        <v>6.185559200675304</v>
       </c>
       <c r="D21">
-        <v>9.202288546326615</v>
+        <v>6.567112550276621</v>
       </c>
       <c r="E21">
-        <v>18.72234917187427</v>
+        <v>13.94921369512872</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>24.15666607032219</v>
+        <v>27.36178532736527</v>
       </c>
       <c r="H21">
-        <v>8.520850284531633</v>
+        <v>13.78402928166171</v>
       </c>
       <c r="I21">
-        <v>12.50053524620197</v>
+        <v>19.84885484553464</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.11419906103897</v>
+        <v>9.484839173481681</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.61247052321486</v>
+        <v>14.12997181281574</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.45461907197914</v>
+        <v>20.8238315369864</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.22247763575054</v>
+        <v>9.496207848735471</v>
       </c>
       <c r="C22">
-        <v>9.457797612632023</v>
+        <v>6.312556636895521</v>
       </c>
       <c r="D22">
-        <v>9.547931781415731</v>
+        <v>6.675125144630837</v>
       </c>
       <c r="E22">
-        <v>19.47767959819559</v>
+        <v>14.14433759338919</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>24.6616511686371</v>
+        <v>27.38271818007934</v>
       </c>
       <c r="H22">
-        <v>8.513709785490853</v>
+        <v>13.75647367297267</v>
       </c>
       <c r="I22">
-        <v>12.44527056222795</v>
+        <v>19.79348235986028</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.53519778668499</v>
+        <v>9.690374677800712</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.27639176742257</v>
+        <v>14.30361148438072</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.56168423527536</v>
+        <v>20.79072986842926</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.9470820840277</v>
+        <v>9.365282698055335</v>
       </c>
       <c r="C23">
-        <v>9.31688840097071</v>
+        <v>6.245164809244238</v>
       </c>
       <c r="D23">
-        <v>9.364724116120341</v>
+        <v>6.617577671919009</v>
       </c>
       <c r="E23">
-        <v>19.0766714058621</v>
+        <v>14.04018110673869</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>24.3900539478788</v>
+        <v>27.37076936611</v>
       </c>
       <c r="H23">
-        <v>8.51683185919086</v>
+        <v>13.77099435626933</v>
       </c>
       <c r="I23">
-        <v>12.47339188671213</v>
+        <v>19.82270661089182</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.31193068060143</v>
+        <v>9.58134093074551</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.92428775050698</v>
+        <v>14.2109806684726</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.50304625965593</v>
+        <v>20.80800560919046</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.86103192185305</v>
+        <v>8.852393388935203</v>
       </c>
       <c r="C24">
-        <v>8.764785837212582</v>
+        <v>5.981506289652393</v>
       </c>
       <c r="D24">
-        <v>8.642775295659415</v>
+        <v>6.397633480808531</v>
       </c>
       <c r="E24">
-        <v>17.5105567620103</v>
+        <v>13.64644461821474</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>23.40714495382511</v>
+        <v>27.34257512888834</v>
       </c>
       <c r="H24">
-        <v>8.543353026546885</v>
+        <v>13.83007856436551</v>
       </c>
       <c r="I24">
-        <v>12.6090135525361</v>
+        <v>19.94060883049265</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.43503054008832</v>
+        <v>9.153983273142943</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.54106743320287</v>
+        <v>13.85951080388611</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.31311496907283</v>
+        <v>20.88201481096666</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.59724115511266</v>
+        <v>8.264928402334611</v>
       </c>
       <c r="C25">
-        <v>8.130390013964574</v>
+        <v>5.67999311305666</v>
       </c>
       <c r="D25">
-        <v>7.802761252267724</v>
+        <v>6.157624738612919</v>
       </c>
       <c r="E25">
-        <v>15.78786864453667</v>
+        <v>13.22595850899659</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>22.44496583017422</v>
+        <v>27.34855715768315</v>
       </c>
       <c r="H25">
-        <v>8.600651213469822</v>
+        <v>13.90253049274675</v>
       </c>
       <c r="I25">
-        <v>12.81093682012621</v>
+        <v>20.08314952260203</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.42288781891764</v>
+        <v>8.663548428964054</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.94058841582827</v>
+        <v>13.48109760273602</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.17234245430306</v>
+        <v>20.98007527258492</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_229/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_229/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.805543114114612</v>
+        <v>12.58717965428276</v>
       </c>
       <c r="C2">
-        <v>5.44426934738694</v>
+        <v>7.630673787206368</v>
       </c>
       <c r="D2">
-        <v>5.980106129458768</v>
+        <v>7.130201265633776</v>
       </c>
       <c r="E2">
-        <v>12.92265138345084</v>
+        <v>14.58041456616674</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>27.38410292719514</v>
+        <v>21.82036142160857</v>
       </c>
       <c r="H2">
-        <v>13.96336833258216</v>
+        <v>8.664931744016082</v>
       </c>
       <c r="I2">
-        <v>20.20127425907823</v>
+        <v>13.00137348545466</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.278630340669769</v>
+        <v>11.62169040700583</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.20517529870976</v>
+        <v>14.66676195446461</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.06785478488508</v>
+        <v>14.11891360592462</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.479159255367423</v>
+        <v>11.85327435490012</v>
       </c>
       <c r="C3">
-        <v>5.276570393855876</v>
+        <v>7.272354410416184</v>
       </c>
       <c r="D3">
-        <v>5.86015818202964</v>
+        <v>6.640019198154966</v>
       </c>
       <c r="E3">
-        <v>12.72239842815129</v>
+        <v>13.73217371218063</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>27.42748847833633</v>
+        <v>21.44854834408849</v>
       </c>
       <c r="H3">
-        <v>14.00926801709297</v>
+        <v>8.721054462268183</v>
       </c>
       <c r="I3">
-        <v>20.28952537903529</v>
+        <v>13.15370453773687</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.003866026527515</v>
+        <v>11.04472066105076</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.02095456359948</v>
+        <v>13.74318461726924</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.13700669877316</v>
+        <v>14.11143799127902</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.27202708196739</v>
+        <v>11.37850050706655</v>
       </c>
       <c r="C4">
-        <v>5.169923302844849</v>
+        <v>7.042978557127872</v>
       </c>
       <c r="D4">
-        <v>5.786987836945771</v>
+        <v>6.321874884353567</v>
       </c>
       <c r="E4">
-        <v>12.60251652323681</v>
+        <v>13.19773755950077</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>27.46358855484575</v>
+        <v>21.24515763286184</v>
       </c>
       <c r="H4">
-        <v>14.03975236640628</v>
+        <v>8.761325515696193</v>
       </c>
       <c r="I4">
-        <v>20.34774840779203</v>
+        <v>13.25786958905029</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.828683050233664</v>
+        <v>10.67414716888384</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.90957888070791</v>
+        <v>13.14620935907629</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.18421335048026</v>
+        <v>14.12013144545282</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.186046953095028</v>
+        <v>11.17900090048881</v>
       </c>
       <c r="C5">
-        <v>5.125579076165792</v>
+        <v>6.947213382534255</v>
       </c>
       <c r="D5">
-        <v>5.757337262259002</v>
+        <v>6.199749742914543</v>
       </c>
       <c r="E5">
-        <v>12.55450536322625</v>
+        <v>12.97675532266173</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>27.48066925665675</v>
+        <v>21.16843796438047</v>
       </c>
       <c r="H5">
-        <v>14.05275354206671</v>
+        <v>8.779142980890882</v>
       </c>
       <c r="I5">
-        <v>20.37248871154386</v>
+        <v>13.30287359452345</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.755730820374788</v>
+        <v>10.5191217999075</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.8646847351423</v>
+        <v>12.89541171482364</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.20464120862175</v>
+        <v>14.12688040606136</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.171678891226096</v>
+        <v>11.14551197080935</v>
       </c>
       <c r="C6">
-        <v>5.118163577986689</v>
+        <v>6.931175251977202</v>
       </c>
       <c r="D6">
-        <v>5.752425264320433</v>
+        <v>6.180646853995844</v>
       </c>
       <c r="E6">
-        <v>12.54658595310631</v>
+        <v>12.93987610387961</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>27.48364830972525</v>
+        <v>21.15606756267101</v>
       </c>
       <c r="H6">
-        <v>14.05494731372553</v>
+        <v>8.782184963354585</v>
       </c>
       <c r="I6">
-        <v>20.37665802954271</v>
+        <v>13.31049754212954</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.743524741875031</v>
+        <v>10.49314049169597</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.85726144450951</v>
+        <v>12.85331248215187</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.20810507030126</v>
+        <v>14.12819077881386</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.2708737187096</v>
+        <v>11.37583430620572</v>
       </c>
       <c r="C7">
-        <v>5.169328786766433</v>
+        <v>7.041696225567742</v>
       </c>
       <c r="D7">
-        <v>5.78658722090662</v>
+        <v>6.320085435086607</v>
       </c>
       <c r="E7">
-        <v>12.60186553060271</v>
+        <v>13.19476991316974</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>27.46380933021215</v>
+        <v>21.24409815886468</v>
       </c>
       <c r="H7">
-        <v>14.0399253625837</v>
+        <v>8.761560183186653</v>
       </c>
       <c r="I7">
-        <v>20.34807796014449</v>
+        <v>13.25846633032759</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.827705431778571</v>
+        <v>10.67207256338323</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.90897135608934</v>
+        <v>13.14285748499402</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.18448403033309</v>
+        <v>14.12020965996102</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.694470670097245</v>
+        <v>12.33916573004503</v>
       </c>
       <c r="C8">
-        <v>5.387233502249907</v>
+        <v>7.509103016744001</v>
       </c>
       <c r="D8">
-        <v>5.938676644876238</v>
+        <v>6.964731890883383</v>
       </c>
       <c r="E8">
-        <v>12.85300780484579</v>
+        <v>14.29088724909221</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>27.39709333522215</v>
+        <v>21.68694068841011</v>
       </c>
       <c r="H8">
-        <v>13.97871667175683</v>
+        <v>8.683043092864015</v>
       </c>
       <c r="I8">
-        <v>20.23086483306856</v>
+        <v>13.05161703687627</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.185272614216451</v>
+        <v>11.42618379979573</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.14132916507122</v>
+        <v>14.35450811788295</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.09071137484074</v>
+        <v>14.11349892976214</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.467181329125125</v>
+        <v>14.03531362826956</v>
       </c>
       <c r="C9">
-        <v>5.783762989600422</v>
+        <v>8.349223381817222</v>
       </c>
       <c r="D9">
-        <v>6.238706399734584</v>
+        <v>8.094030016984648</v>
       </c>
       <c r="E9">
-        <v>13.36680354881786</v>
+        <v>16.33503330033641</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.34169096407835</v>
+        <v>22.75599302217703</v>
       </c>
       <c r="H9">
-        <v>13.87696062738328</v>
+        <v>8.577750280635097</v>
       </c>
       <c r="I9">
-        <v>20.03308547907721</v>
+        <v>12.73604140414359</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.832564087607906</v>
+        <v>12.77261373046445</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.60829015189443</v>
+        <v>16.49440610401038</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.94461658633934</v>
+        <v>14.21162375021683</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.99440114842624</v>
+        <v>15.16305510974126</v>
       </c>
       <c r="C10">
-        <v>6.054457610591172</v>
+        <v>8.917722550871092</v>
       </c>
       <c r="D10">
-        <v>6.457618987744307</v>
+        <v>8.843486228864604</v>
       </c>
       <c r="E10">
-        <v>13.75310396539264</v>
+        <v>17.94371662401803</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.3473592170473</v>
+        <v>23.66621586029908</v>
       </c>
       <c r="H10">
-        <v>13.81335509482726</v>
+        <v>8.533771111514422</v>
       </c>
       <c r="I10">
-        <v>19.90739627071385</v>
+        <v>12.5675226934237</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.272358921661176</v>
+        <v>13.67828609681197</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.95494867215105</v>
+        <v>17.92492719839975</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.86048791541589</v>
+        <v>14.35940081963079</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.224604169110467</v>
+        <v>15.65042521496577</v>
       </c>
       <c r="C11">
-        <v>6.172794813153521</v>
+        <v>9.165499490686226</v>
       </c>
       <c r="D11">
-        <v>6.556359879665584</v>
+        <v>9.167450829937824</v>
       </c>
       <c r="E11">
-        <v>13.92987728697771</v>
+        <v>18.6465058465639</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.36005671854768</v>
+        <v>24.10752640998831</v>
       </c>
       <c r="H11">
-        <v>13.78684451749192</v>
+        <v>8.52186278765252</v>
       </c>
       <c r="I11">
-        <v>19.85449178839747</v>
+        <v>12.50662067367455</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.464165391677207</v>
+        <v>14.07182073079175</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.1127384999112</v>
+        <v>18.54563964492534</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.82728810742974</v>
+        <v>14.44466673029928</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.310333641775316</v>
+        <v>15.8313049140066</v>
       </c>
       <c r="C12">
-        <v>6.216891998197392</v>
+        <v>9.2577554373909</v>
       </c>
       <c r="D12">
-        <v>6.593588835587793</v>
+        <v>9.287724887162243</v>
       </c>
       <c r="E12">
-        <v>13.9968952283855</v>
+        <v>18.90856988356563</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>27.36632127607113</v>
+        <v>24.27854739621678</v>
       </c>
       <c r="H12">
-        <v>13.77715449936689</v>
+        <v>8.518591766411893</v>
       </c>
       <c r="I12">
-        <v>19.83507392488242</v>
+        <v>12.48600396708126</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.535574900524313</v>
+        <v>14.21817267668232</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.17244650253387</v>
+        <v>18.77643433896601</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.81544788454895</v>
+        <v>14.4796743460011</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.291935298154462</v>
+        <v>15.79251251365917</v>
       </c>
       <c r="C13">
-        <v>6.207427010173711</v>
+        <v>9.237956520172148</v>
       </c>
       <c r="D13">
-        <v>6.585578746626576</v>
+        <v>9.261928070167075</v>
       </c>
       <c r="E13">
-        <v>13.98245938813167</v>
+        <v>18.85230878214346</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>27.36490732255732</v>
+        <v>24.24154148994297</v>
       </c>
       <c r="H13">
-        <v>13.77922589150195</v>
+        <v>8.5192399542763</v>
       </c>
       <c r="I13">
-        <v>19.83922849070701</v>
+        <v>12.49033241058667</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.520250520540738</v>
+        <v>14.18677212951806</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.15959014403203</v>
+        <v>18.72691673964178</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.8179652997623</v>
+        <v>14.47201195165708</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.231686415571271</v>
+        <v>15.66537989790111</v>
       </c>
       <c r="C14">
-        <v>6.176437162361319</v>
+        <v>9.173120998202524</v>
       </c>
       <c r="D14">
-        <v>6.559426201800875</v>
+        <v>9.177393827034535</v>
       </c>
       <c r="E14">
-        <v>13.93538974253739</v>
+        <v>18.66814687636361</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>27.36054292073647</v>
+        <v>24.12151821289987</v>
       </c>
       <c r="H14">
-        <v>13.7860403178235</v>
+        <v>8.521568425979643</v>
       </c>
       <c r="I14">
-        <v>19.85288191604782</v>
+        <v>12.50487444780878</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.470065003693419</v>
+        <v>14.08391478794912</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.11765190725066</v>
+        <v>18.56471215804647</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.82629932368916</v>
+        <v>14.44749163132661</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.194592679152361</v>
+        <v>15.5870291161848</v>
       </c>
       <c r="C15">
-        <v>6.157361270740102</v>
+        <v>9.133202385407001</v>
       </c>
       <c r="D15">
-        <v>6.543384735334066</v>
+        <v>9.125302125686591</v>
       </c>
       <c r="E15">
-        <v>13.9065662359826</v>
+        <v>18.5548160722713</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>27.35805925557181</v>
+        <v>24.04850873573152</v>
       </c>
       <c r="H15">
-        <v>13.79025980793068</v>
+        <v>8.523158200367998</v>
       </c>
       <c r="I15">
-        <v>19.86132529115704</v>
+        <v>12.51410585126063</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.439164611405856</v>
+        <v>14.02056350956673</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.09195618720085</v>
+        <v>18.46480499208382</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.83149953512732</v>
+        <v>14.43282998148492</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.979157827188009</v>
+        <v>15.13068905931506</v>
       </c>
       <c r="C16">
-        <v>6.046625240237065</v>
+        <v>8.901310378119334</v>
       </c>
       <c r="D16">
-        <v>6.451145525544167</v>
+        <v>8.821975971092568</v>
       </c>
       <c r="E16">
-        <v>13.74156618117666</v>
+        <v>17.89721259341756</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.34673316755686</v>
+        <v>23.6379226115478</v>
       </c>
       <c r="H16">
-        <v>13.81513643345352</v>
+        <v>8.53471855599725</v>
       </c>
       <c r="I16">
-        <v>19.91093980472261</v>
+        <v>12.57183499746602</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.259654562879989</v>
+        <v>13.6521945905799</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.94463370409903</v>
+        <v>17.88376300184476</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.86275986811426</v>
+        <v>14.35420232003607</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.844484148505058</v>
+        <v>14.84417643856913</v>
       </c>
       <c r="C17">
-        <v>5.977444188112586</v>
+        <v>8.756264900844407</v>
       </c>
       <c r="D17">
-        <v>6.394313965248119</v>
+        <v>8.631574466429761</v>
       </c>
       <c r="E17">
-        <v>13.64055915447432</v>
+        <v>17.48643446381253</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.34237810268015</v>
+        <v>23.39301394358019</v>
       </c>
       <c r="H17">
-        <v>13.83101854797991</v>
+        <v>8.543936259981185</v>
       </c>
       <c r="I17">
-        <v>19.94247202453225</v>
+        <v>12.61141055229144</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.147388753405432</v>
+        <v>13.42146932624892</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.85423896592729</v>
+        <v>17.51966181617118</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.88323775087654</v>
+        <v>14.31067803326595</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.766119686108716</v>
+        <v>14.67696698204145</v>
       </c>
       <c r="C18">
-        <v>5.937202220498486</v>
+        <v>8.671818979971766</v>
       </c>
       <c r="D18">
-        <v>6.361548853831338</v>
+        <v>8.520461367278868</v>
       </c>
       <c r="E18">
-        <v>13.58256500460204</v>
+        <v>17.24742821725174</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.34082567144519</v>
+        <v>23.25471483431507</v>
       </c>
       <c r="H18">
-        <v>13.84038164475525</v>
+        <v>8.549995666038059</v>
       </c>
       <c r="I18">
-        <v>19.96101054368188</v>
+        <v>12.63564520490118</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.08204094187532</v>
+        <v>13.28702504165483</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.8022583892396</v>
+        <v>17.30740871347548</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.89549322107805</v>
+        <v>14.28733497824241</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.739433536311871</v>
+        <v>14.61993773947868</v>
       </c>
       <c r="C19">
-        <v>5.923500320447845</v>
+        <v>8.64305245042881</v>
       </c>
       <c r="D19">
-        <v>6.35044318810236</v>
+        <v>8.482564657423097</v>
       </c>
       <c r="E19">
-        <v>13.56294900790404</v>
+        <v>17.16603166605141</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.3404635702322</v>
+        <v>23.20833004671266</v>
       </c>
       <c r="H19">
-        <v>13.84359099655765</v>
+        <v>8.552175193552863</v>
       </c>
       <c r="I19">
-        <v>19.96735636733831</v>
+        <v>12.64409812410623</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.059783275514585</v>
+        <v>13.24120680542414</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.78466249603168</v>
+        <v>17.23505529227661</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.8997245773213</v>
+        <v>14.27971796022172</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.858914374611491</v>
+        <v>14.87492607935539</v>
       </c>
       <c r="C20">
-        <v>5.98485547294237</v>
+        <v>8.771810883839693</v>
       </c>
       <c r="D20">
-        <v>6.400372064274936</v>
+        <v>8.652008288493422</v>
       </c>
       <c r="E20">
-        <v>13.6513014549222</v>
+        <v>17.53044510570162</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.34274311367189</v>
+        <v>23.41881939114555</v>
       </c>
       <c r="H20">
-        <v>13.82930425675534</v>
+        <v>8.542876081684032</v>
       </c>
       <c r="I20">
-        <v>19.93907374691167</v>
+        <v>12.60704406807522</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.159420175209879</v>
+        <v>13.44621036866655</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.86386080695445</v>
+        <v>17.55871364489209</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.8810084439786</v>
+        <v>14.31513533930376</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.249422568123897</v>
+        <v>15.70282149460223</v>
       </c>
       <c r="C21">
-        <v>6.185559200675304</v>
+        <v>9.192207495943791</v>
       </c>
       <c r="D21">
-        <v>6.567112550276621</v>
+        <v>9.202288546326599</v>
       </c>
       <c r="E21">
-        <v>13.94921369512872</v>
+        <v>18.72234917187426</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>27.36178532736527</v>
+        <v>24.15666607032196</v>
       </c>
       <c r="H21">
-        <v>13.78402928166171</v>
+        <v>8.520850284531484</v>
       </c>
       <c r="I21">
-        <v>19.84885484553464</v>
+        <v>12.5005352462018</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.484839173481681</v>
+        <v>14.11419906103903</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.12997181281574</v>
+        <v>18.61247052321489</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.8238315369864</v>
+        <v>14.45461907197895</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.496207848735471</v>
+        <v>16.22247763575057</v>
       </c>
       <c r="C22">
-        <v>6.312556636895521</v>
+        <v>9.457797612631849</v>
       </c>
       <c r="D22">
-        <v>6.675125144630837</v>
+        <v>9.5479317814157</v>
       </c>
       <c r="E22">
-        <v>14.14433759338919</v>
+        <v>19.47767959819556</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.38271818007934</v>
+        <v>24.66165116863712</v>
       </c>
       <c r="H22">
-        <v>13.75647367297267</v>
+        <v>8.513709785490853</v>
       </c>
       <c r="I22">
-        <v>19.79348235986028</v>
+        <v>12.44527056222793</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.690374677800712</v>
+        <v>14.53519778668502</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.30361148438072</v>
+        <v>19.27639176742258</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.79072986842926</v>
+        <v>14.56168423527535</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.365282698055335</v>
+        <v>15.94708208402777</v>
       </c>
       <c r="C23">
-        <v>6.245164809244238</v>
+        <v>9.316888400970592</v>
       </c>
       <c r="D23">
-        <v>6.617577671919009</v>
+        <v>9.364724116120248</v>
       </c>
       <c r="E23">
-        <v>14.04018110673869</v>
+        <v>19.07667140586207</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.37076936611</v>
+        <v>24.39005394787887</v>
       </c>
       <c r="H23">
-        <v>13.77099435626933</v>
+        <v>8.51683185919088</v>
       </c>
       <c r="I23">
-        <v>19.82270661089182</v>
+        <v>12.47339188671211</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.58134093074551</v>
+        <v>14.31193068060146</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.2109806684726</v>
+        <v>18.92428775050697</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.80800560919046</v>
+        <v>14.50304625965596</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.852393388935203</v>
+        <v>14.86103192185315</v>
       </c>
       <c r="C24">
-        <v>5.981506289652393</v>
+        <v>8.764785837212541</v>
       </c>
       <c r="D24">
-        <v>6.397633480808531</v>
+        <v>8.642775295659472</v>
       </c>
       <c r="E24">
-        <v>13.64644461821474</v>
+        <v>17.51055676201029</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.34257512888834</v>
+        <v>23.40714495382504</v>
       </c>
       <c r="H24">
-        <v>13.83007856436551</v>
+        <v>8.543353026546896</v>
       </c>
       <c r="I24">
-        <v>19.94060883049265</v>
+        <v>12.60901355253601</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.153983273142943</v>
+        <v>13.43503054008839</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.85951080388611</v>
+        <v>17.54106743320289</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.88201481096666</v>
+        <v>14.31311496907279</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.264928402334611</v>
+        <v>13.59724115511271</v>
       </c>
       <c r="C25">
-        <v>5.67999311305666</v>
+        <v>8.130390013964519</v>
       </c>
       <c r="D25">
-        <v>6.157624738612919</v>
+        <v>7.80276125226772</v>
       </c>
       <c r="E25">
-        <v>13.22595850899659</v>
+        <v>15.78786864453669</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.34855715768315</v>
+        <v>22.44496583017433</v>
       </c>
       <c r="H25">
-        <v>13.90253049274675</v>
+        <v>8.600651213469842</v>
       </c>
       <c r="I25">
-        <v>20.08314952260203</v>
+        <v>12.81093682012628</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.663548428964054</v>
+        <v>12.42288781891763</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.48109760273602</v>
+        <v>15.9405884158283</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.98007527258492</v>
+        <v>14.17234245430313</v>
       </c>
     </row>
   </sheetData>
